--- a/medicine/Psychotrope/Journée_mondiale_sans_tabac/Journée_mondiale_sans_tabac.xlsx
+++ b/medicine/Psychotrope/Journée_mondiale_sans_tabac/Journée_mondiale_sans_tabac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_sans_tabac</t>
+          <t>Journée_mondiale_sans_tabac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La journée mondiale sans tabac est une journée internationale qui a lieu chaque année le 31 mai depuis 1988 sous l'égide de l'Organisation mondiale de la santé (OMS).
-L'OMS a organisé l'événement pour la première fois le 7 avril en 1987 ; l'année suivante la date a été définitivement fixée au 31 mai. La journée a pour but de faire passer une prise de conscience globale sur les dangers du tabac pour la santé des consommateurs comme de leur entourage[1] : sur 650 millions de fumeurs, cinq millions meurent chaque année à cause de problèmes de santé liés au tabagisme selon l'organisation[2].
+L'OMS a organisé l'événement pour la première fois le 7 avril en 1987 ; l'année suivante la date a été définitivement fixée au 31 mai. La journée a pour but de faire passer une prise de conscience globale sur les dangers du tabac pour la santé des consommateurs comme de leur entourage : sur 650 millions de fumeurs, cinq millions meurent chaque année à cause de problèmes de santé liés au tabagisme selon l'organisation.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_sans_tabac</t>
+          <t>Journée_mondiale_sans_tabac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,36 +525,38 @@
           <t>Thèmes et slogans</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque année, la journée aborde un thème particulier, résumé généralement par un slogan[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, la journée aborde un thème particulier, résumé généralement par un slogan :
 31 mai 1998 : « Grandir sans tabac » ;
 31 mai 1999 : « Laissez le paquet derrière vous », en référence aux méthodes de sevrage tabagique ;
-31 mai 2000 : « Le tabac tue, ne vous faites pas abuser »[3] ;
-31 mai 2001 : « Le tabagisme passif tue – Nettoyons l'air »[4] ;
-31 mai 2002 : « Sports sans tabac – Jouez proprement », en opposition au tabagisme et à la publicité dans le domaine du sport[5] ;
-31 mai 2003 : « Film sans tabac, mode sans tabac », en référence au rôle promotionnel joué par l'industrie cinématographique et la mode[6] ;
-31 mai 2004 : « Tabac et pauvreté, un cercle vicieux », au sujet des effets socio-économiques du tabagisme[7] ;
-31 mai 2005 : « Les professionnels de la santé contre le tabac »[8] ;
-31 mai 2006 : « Le tabac : mortel sous toutes ses formes », en référence aux actions de marketing de l'industrie du tabac concernant les cigarettes « légères »[9] ;
-31 mai 2007 : « Espaces sans tabac », en référence aux actions législatives de plusieurs pays d'interdire la cigarette dans les espaces publics[10] ;
-31 mai 2008 : « Jeunesse sans tabac », pour dénoncer et contrer les opérations de marketing de l'industrie du tabac à l'intention de la jeunesse[11] ;
-31 mai 2009 : « Les mises en garde sanitaires » contre les dangers du tabac pour la santé[12] ;
-31 mai 2010 : « Fumer c'est moche » pour contrer les opérations de marketing à l'intention d'un public féminin[13] ;
-31 mai 2011 : « Trois façons de sauver des vies », qui encourage les gouvernements à mettre en œuvre les principales dispositions de la Convention-cadre de l'OMS pour la lutte antitabac[14] ;
-31 mai 2012 : « Halte à l'interférence de l’industrie du tabac », afin de « dénoncer et contrecarrer les agissements [...] de l'industrie du tabac visant à saper la Convention-cadre de l'OMS pour la lutte antitabac »[15] ;
-31 mai 2013 : le thème de cette journée était « l'interdiction de la publicité en faveur du tabac, de la promotion et du parrainage »[16] ;
-31 mai 2014 : « Augmenter les taxes sur le tabac »[17] ;
-31 mai 2015 : « Éliminer le commerce illicite des produits du tabac »[18] ;
-31 mai 2016 : « Préparez-vous au conditionnement neutre » des produits du tabac[19] ;
-31 mai 2017 : « Le tabac – une menace pour le développement »[20] ;
-31 mai 2018 : « Le tabac vous brise le cœur. Choisissez la santé, pas le tabac »[21] ;
-31 mai 2019 : « Le tabac et la santé pulmoraire »[22].
-31 mai 2020 : « Tactiques utilisées par l’industrie du tabac et les industries connexes pour attirer les jeunes générations »[23].
-31 mai 2021 : « Engagez-vous à arrêter ! »[24].
-31 mai 2022 : « Le tabac : une menace pour notre environnement »[25].
-31 mai 2023 : « Cultivons des aliments, pas du tabac »[26].
-31 mai 2024 : « Protéger les enfants de l’ingérence de l’industrie du tabac »[27].
+31 mai 2000 : « Le tabac tue, ne vous faites pas abuser » ;
+31 mai 2001 : « Le tabagisme passif tue – Nettoyons l'air » ;
+31 mai 2002 : « Sports sans tabac – Jouez proprement », en opposition au tabagisme et à la publicité dans le domaine du sport ;
+31 mai 2003 : « Film sans tabac, mode sans tabac », en référence au rôle promotionnel joué par l'industrie cinématographique et la mode ;
+31 mai 2004 : « Tabac et pauvreté, un cercle vicieux », au sujet des effets socio-économiques du tabagisme ;
+31 mai 2005 : « Les professionnels de la santé contre le tabac » ;
+31 mai 2006 : « Le tabac : mortel sous toutes ses formes », en référence aux actions de marketing de l'industrie du tabac concernant les cigarettes « légères » ;
+31 mai 2007 : « Espaces sans tabac », en référence aux actions législatives de plusieurs pays d'interdire la cigarette dans les espaces publics ;
+31 mai 2008 : « Jeunesse sans tabac », pour dénoncer et contrer les opérations de marketing de l'industrie du tabac à l'intention de la jeunesse ;
+31 mai 2009 : « Les mises en garde sanitaires » contre les dangers du tabac pour la santé ;
+31 mai 2010 : « Fumer c'est moche » pour contrer les opérations de marketing à l'intention d'un public féminin ;
+31 mai 2011 : « Trois façons de sauver des vies », qui encourage les gouvernements à mettre en œuvre les principales dispositions de la Convention-cadre de l'OMS pour la lutte antitabac ;
+31 mai 2012 : « Halte à l'interférence de l’industrie du tabac », afin de « dénoncer et contrecarrer les agissements [...] de l'industrie du tabac visant à saper la Convention-cadre de l'OMS pour la lutte antitabac » ;
+31 mai 2013 : le thème de cette journée était « l'interdiction de la publicité en faveur du tabac, de la promotion et du parrainage » ;
+31 mai 2014 : « Augmenter les taxes sur le tabac » ;
+31 mai 2015 : « Éliminer le commerce illicite des produits du tabac » ;
+31 mai 2016 : « Préparez-vous au conditionnement neutre » des produits du tabac ;
+31 mai 2017 : « Le tabac – une menace pour le développement » ;
+31 mai 2018 : « Le tabac vous brise le cœur. Choisissez la santé, pas le tabac » ;
+31 mai 2019 : « Le tabac et la santé pulmoraire ».
+31 mai 2020 : « Tactiques utilisées par l’industrie du tabac et les industries connexes pour attirer les jeunes générations ».
+31 mai 2021 : « Engagez-vous à arrêter ! ».
+31 mai 2022 : « Le tabac : une menace pour notre environnement ».
+31 mai 2023 : « Cultivons des aliments, pas du tabac ».
+31 mai 2024 : « Protéger les enfants de l’ingérence de l’industrie du tabac ».
 </t>
         </is>
       </c>
